--- a/excel/hmd_Continuous.xlsx
+++ b/excel/hmd_Continuous.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D0DFC8-D3FD-41CF-B4AC-83F75AD2208D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tri3_均布_8-64" sheetId="1" r:id="rId1"/>
+    <sheet name="Tri3_非均布_4-64" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +25,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t>没稀疏矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,46 +353,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-0.3010299956639812</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-1.6525793166363008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.6020599913279624</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-2.25457879976442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-0.9030899869919435</v>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-2.8566212096692922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-1.2041199826559248</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>-3.4586640617285438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D97A7BB-3136-4DE9-9F43-FA45C9D5B719}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.88435027713528391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="B3">
+        <v>-0.97134317213308052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="B4">
+        <v>-1.6599478629503444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="B5">
+        <v>-1.494482032409113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="B6">
+        <v>-2.3489617033838268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/hmd_Continuous.xlsx
+++ b/excel/hmd_Continuous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D0DFC8-D3FD-41CF-B4AC-83F75AD2208D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B50542-5D7F-4894-9A43-9CEB8858E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>没稀疏矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,47 +366,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" dyDescent="0.2">
       <c r="A2">
         <v>-0.3010299956639812</v>
       </c>
       <c r="B2">
+        <v>-0.8341830231559808</v>
+      </c>
+      <c r="C2">
         <v>-1.6525793166363008</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" dyDescent="0.2">
       <c r="A3">
         <v>-0.6020599913279624</v>
       </c>
       <c r="B3">
+        <v>-1.1364818515483281</v>
+      </c>
+      <c r="C3">
         <v>-2.25457879976442</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" dyDescent="0.2">
       <c r="A4">
-        <v>-0.90308998699194354</v>
+        <v>-0.9030899869919435</v>
       </c>
       <c r="B4">
+        <v>-1.4378311882546349</v>
+      </c>
+      <c r="C4">
         <v>-2.8566212096692922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" dyDescent="0.2">
       <c r="A5">
         <v>-1.2041199826559248</v>
       </c>
       <c r="B5">
-        <v>-3.4586640617285438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.7389410944633268</v>
+      </c>
+      <c r="C5">
+        <v>-3.458664061728544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" dyDescent="0.2">
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -416,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -424,7 +459,7 @@
         <v>-0.88435027713528391</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" dyDescent="0.2">
       <c r="A3">
         <v>-0.3010299956639812</v>
       </c>
@@ -432,7 +467,7 @@
         <v>-0.97134317213308052</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" dyDescent="0.2">
       <c r="A4">
         <v>-0.6020599913279624</v>
       </c>
@@ -440,7 +475,7 @@
         <v>-1.6599478629503444</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" dyDescent="0.2">
       <c r="A5">
         <v>-0.90308998699194354</v>
       </c>
@@ -448,7 +483,7 @@
         <v>-1.494482032409113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" dyDescent="0.2">
       <c r="A6">
         <v>-1.2041199826559248</v>
       </c>
@@ -456,7 +491,7 @@
         <v>-2.3489617033838268</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" dyDescent="0.2">
       <c r="D8" t="s">
         <v>0</v>
       </c>

--- a/excel/hmd_Continuous.xlsx
+++ b/excel/hmd_Continuous.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B50542-5D7F-4894-9A43-9CEB8858E943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93560E78-A801-4049-A729-5BBDE7D93E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="723" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri3_均布_8-64" sheetId="1" r:id="rId1"/>
     <sheet name="Tri3_非均布_4-64" sheetId="2" r:id="rId2"/>
+    <sheet name="拉伸均布_4-64" sheetId="3" r:id="rId3"/>
+    <sheet name="压缩均布_4-64" sheetId="4" r:id="rId4"/>
+    <sheet name="拉伸非均布_4-64" sheetId="5" r:id="rId5"/>
+    <sheet name="压缩非均布_4-64" sheetId="6" r:id="rId6"/>
+    <sheet name="Tri6拉伸非均布_4-64" sheetId="7" r:id="rId7"/>
+    <sheet name="Tri6压缩非均布_4-64" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -368,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -387,7 +393,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="B2">
-        <v>-0.8341830231559808</v>
+        <v>-0.83418302315598081</v>
       </c>
       <c r="C2">
         <v>-1.6525793166363008</v>
@@ -409,7 +415,7 @@
     </row>
     <row r="4" spans="1:7" dyDescent="0.2">
       <c r="A4">
-        <v>-0.9030899869919435</v>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="B4">
         <v>-1.4378311882546349</v>
@@ -426,7 +432,7 @@
         <v>-1.7389410944633268</v>
       </c>
       <c r="C5">
-        <v>-3.458664061728544</v>
+        <v>-3.4586640617285438</v>
       </c>
     </row>
     <row r="9" spans="1:7" dyDescent="0.2">
@@ -500,4 +506,389 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D2A0D4-1E12-4220-9F05-F78D2D8FDE8A}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.70225948103269897</v>
+      </c>
+      <c r="C2">
+        <v>-1.2454752245501006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="B3">
+        <v>-1.0138434808378871</v>
+      </c>
+      <c r="C3">
+        <v>-1.8559757919327553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="B4">
+        <v>-1.3175124553039688</v>
+      </c>
+      <c r="C4">
+        <v>-2.4600399026875786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="B5">
+        <v>-1.6192013469655313</v>
+      </c>
+      <c r="C5">
+        <v>-3.0625656143360174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" dyDescent="0.2">
+      <c r="A6">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="B6">
+        <v>-1.920395985494602</v>
+      </c>
+      <c r="C6">
+        <v>-3.6646633461346232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D074C53-3C70-42BE-BAED-F014663172DD}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.27026097437042035</v>
+      </c>
+      <c r="C2">
+        <v>-0.52643031001937801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="B3">
+        <v>-0.55980947285266724</v>
+      </c>
+      <c r="C3">
+        <v>-1.1362048997789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="B4">
+        <v>-0.89704517618351554</v>
+      </c>
+      <c r="C4">
+        <v>-1.7831111655532035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="B5">
+        <v>-1.1982199679413457</v>
+      </c>
+      <c r="C5">
+        <v>-2.3861462355769358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" dyDescent="0.2">
+      <c r="A6">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="B6">
+        <v>-1.4997863190550749</v>
+      </c>
+      <c r="C6">
+        <v>-2.9890067764489503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176EF82D-EF43-40AF-BC88-FBCB12902290}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.71528680649906462</v>
+      </c>
+      <c r="C2">
+        <v>-1.2309131343968143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="B3">
+        <v>0.5990781628012275</v>
+      </c>
+      <c r="C3">
+        <v>-0.20161299503269989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="B4">
+        <v>0.25565200740607036</v>
+      </c>
+      <c r="C4">
+        <v>-0.7869412436360721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="B5">
+        <v>-0.12154750795996148</v>
+      </c>
+      <c r="C5">
+        <v>-1.4246506124923772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" dyDescent="0.2">
+      <c r="A6">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="B6">
+        <v>-0.37937011467372767</v>
+      </c>
+      <c r="C6">
+        <v>-2.0008030133509802</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047244F3-0B4C-40B4-9DAC-A838A8D8CB65}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.393554709098711</v>
+      </c>
+      <c r="C2">
+        <v>1.143968075228555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="B3">
+        <v>1.0524119951613344</v>
+      </c>
+      <c r="C3">
+        <v>0.5519359715507095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="B4">
+        <v>-0.22210510341273848</v>
+      </c>
+      <c r="C4">
+        <v>-1.1023214537924577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="B5">
+        <v>-0.5943685694841373</v>
+      </c>
+      <c r="C5">
+        <v>-1.7863372102445256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" dyDescent="0.2">
+      <c r="A6">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="B6">
+        <v>-0.94496783256345684</v>
+      </c>
+      <c r="C6">
+        <v>-2.3914752360190348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A03B73-3A87-423C-984B-AC3339D1505B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.0</v>
+      </c>
+      <c r="C2">
+        <v>-0.6817782828505373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C3">
+        <v>-1.526340418561165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C4">
+        <v>-1.9227670125162188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="C5">
+        <v>-3.2859218825567122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DC4FF5-AB9C-4E25-9AA5-877098EDA9EE}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.0</v>
+      </c>
+      <c r="C2">
+        <v>-0.3630016461723619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C3">
+        <v>-2.184234300000076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C4">
+        <v>-1.8951345700779734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="C5">
+        <v>-3.2718795746073814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C6">
+        <v>-2.656231668151022</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>